--- a/config_9.7/act_ty_zp1_config.xlsx
+++ b/config_9.7/act_ty_zp1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t>line</t>
   </si>
@@ -502,24 +502,6 @@
   <si>
     <t>美的空调</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
   </si>
   <si>
     <t>cjlb_Iphone12_2</t>
@@ -1067,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1116,7 +1098,7 @@
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -1137,7 +1119,7 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1196,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>27</v>
@@ -1602,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>73</v>
@@ -1725,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1785,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>56</v>
@@ -1814,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>60</v>
@@ -1843,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>63</v>
@@ -1872,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>66</v>
@@ -1901,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>69</v>
@@ -1930,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>72</v>
